--- a/Growth Rate Table.xlsx
+++ b/Growth Rate Table.xlsx
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -264,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -272,27 +272,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,20 +630,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1"/>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:14" ht="16" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +661,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -669,7 +678,7 @@
         <v>217.1945882352943</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -686,7 +695,7 @@
         <v>179.09019999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,7 +712,7 @@
         <v>171.59358974358975</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -720,7 +729,7 @@
         <v>112.55938461538459</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -737,7 +746,7 @@
         <v>213.52814814814815</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -754,7 +763,7 @@
         <v>221.41795454545448</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -771,7 +780,7 @@
         <v>162.72472727272728</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -788,7 +797,7 @@
         <v>179.76726027397262</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -805,7 +814,7 @@
         <v>210.506386138614</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
+    <row r="12" spans="1:14" ht="16" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -822,8 +831,8 @@
         <v>178.32256983240231</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1"/>
-    <row r="14" spans="1:5">
+    <row r="13" spans="1:14" ht="16" thickBot="1"/>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,8 +848,18 @@
       <c r="E14" s="3">
         <v>2011</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="1"/>
+      <c r="H14" s="2">
+        <v>2008</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -857,8 +876,23 @@
         <f t="shared" si="0"/>
         <v>0.20098639107071858</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.2897000000000001</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -875,8 +909,23 @@
         <f t="shared" si="1"/>
         <v>0.22416790430324673</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.3089</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1.2242</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -893,8 +942,23 @@
         <f t="shared" si="1"/>
         <v>0.14746340313350625</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1.1516</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1.1475</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -911,8 +975,23 @@
         <f t="shared" si="1"/>
         <v>-6.261428558834703E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -929,8 +1008,23 @@
         <f t="shared" si="1"/>
         <v>0.10647371237705072</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1.2296</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.1409</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1.1065</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -947,8 +1041,23 @@
         <f t="shared" si="1"/>
         <v>9.9238072211476291E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1.1541999999999999</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.1032</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1.0992</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,8 +1074,23 @@
         <f t="shared" si="1"/>
         <v>9.8488397936673966E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1.0625</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1.0578000000000001</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1.0985</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -983,8 +1107,23 @@
         <f t="shared" si="1"/>
         <v>6.7034659545604391E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="4">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1.1409</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1001,8 +1140,23 @@
         <f t="shared" si="1"/>
         <v>0.1281281467096993</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.2650999999999999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1.1666000000000001</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -1019,6 +1173,21 @@
         <f t="shared" si="1"/>
         <v>0.14821551535718624</v>
       </c>
+      <c r="G24" s="5">
+        <v>9</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1.1755</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1.1101000000000001</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1.1482000000000001</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Growth Rate Table.xlsx
+++ b/Growth Rate Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>CHELSEA</t>
   </si>
@@ -56,6 +56,9 @@
   <si>
     <t>Growth Rate</t>
   </si>
+  <si>
+    <t>Normalizing Growth Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +93,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -144,13 +153,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -159,15 +226,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -180,25 +312,36 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -210,52 +353,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -275,22 +373,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -633,7 +744,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -644,550 +755,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1"/>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="16" thickBot="1">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="19">
         <v>2008</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="20">
         <v>2009</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="20">
         <v>2010</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="21">
         <v>2011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="15">
         <v>168.40322580645162</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="16">
         <v>186.83098591549296</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="16">
         <v>180.84683544303797</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="17">
         <v>217.1945882352943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>136.82499999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>147.19512195121951</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>146.29545454545453</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="2">
         <v>179.09019999999998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>141.76923076923077</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>149</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>149.54166666666666</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>171.59358974358975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>115.26374999999999</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>122.0409090909091</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>120.07798165137615</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>112.55938461538459</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>173.66</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>187.16326530612244</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>192.98076923076923</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>213.52814814814815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>191.82926829268294</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>200.7</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>201.42857142857142</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>221.41795454545448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>153.15151515151516</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>153.82857142857142</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>148.13513513513513</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>162.72472727272728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>157.96153846153845</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>157.56603773584905</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>168.47368421052633</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
         <v>179.76726027397262</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>166.39560439560441</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
         <v>180.44444444444446</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>186.5979381443299</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
         <v>210.506386138614</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>151.69736842105263</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>160.64331210191082</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>155.30409356725147</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>178.32256983240231</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1"/>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:14" ht="16" thickBot="1">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="19">
         <v>2008</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="20">
         <v>2009</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="20">
         <v>2010</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="21">
         <v>2011</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2">
+      <c r="G14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="19">
         <v>2008</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="20">
         <v>2009</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="21">
         <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10">
+      <c r="B15" s="15"/>
+      <c r="C15" s="22">
         <f>(C3/B3) - 1</f>
         <v>0.1094264080797398</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="22">
         <f t="shared" ref="D15:E15" si="0">(D3/C3) - 1</f>
         <v>-3.2029753753811119E-2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>0.20098639107071858</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="24">
         <v>1.2897000000000001</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="22">
         <v>1.1625000000000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="23">
         <v>1.2010000000000001</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10">
+      <c r="B16" s="10"/>
+      <c r="C16" s="5">
         <f t="shared" ref="C16:E24" si="1">(C4/B4) - 1</f>
         <v>7.5791134304546093E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>-6.1120735105822943E-3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>0.22416790430324673</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="25">
         <v>1.3089</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="5">
         <v>1.2166999999999999</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>1.2242</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>5.1003798155181634E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>3.6353467561520691E-3</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>0.14746340313350625</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="25">
         <v>1.2103999999999999</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="5">
         <v>1.1516</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="7">
         <v>1.1475</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5">
         <f t="shared" si="1"/>
         <v>5.87969686125005E-2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <f t="shared" si="1"/>
         <v>-1.6084175823950608E-2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>-6.261428558834703E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="12">
         <v>3</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="25">
         <v>0.97650000000000003</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="5">
         <v>0.92230000000000001</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <v>0.93740000000000001</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5">
         <f t="shared" si="1"/>
         <v>7.77569118168977E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
         <v>3.1082509247376766E-2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>0.10647371237705072</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="12">
         <v>4</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="25">
         <v>1.2296</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="5">
         <v>1.1409</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="7">
         <v>1.1065</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10">
+      <c r="B20" s="10"/>
+      <c r="C20" s="5">
         <f t="shared" si="1"/>
         <v>4.624284806102974E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <f t="shared" si="1"/>
         <v>3.6301516122143607E-3</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>9.9238072211476291E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="12">
         <v>5</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="25">
         <v>1.1541999999999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="5">
         <v>1.1032</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="7">
         <v>1.0992</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10">
+      <c r="B21" s="10"/>
+      <c r="C21" s="5">
         <f t="shared" si="1"/>
         <v>4.420826502345987E-3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>-3.7011565800570301E-2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>9.8488397936673966E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="12">
         <v>6</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="25">
         <v>1.0625</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="5">
         <v>1.0578000000000001</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="7">
         <v>1.0985</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10">
+      <c r="B22" s="10"/>
+      <c r="C22" s="5">
         <f t="shared" si="1"/>
         <v>-2.5037786384037863E-3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
         <v>6.9225872728762461E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>6.7034659545604391E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="12">
         <v>7</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="25">
         <v>1.1379999999999999</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="5">
         <v>1.1409</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="7">
         <v>1.0669999999999999</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10">
+      <c r="B23" s="10"/>
+      <c r="C23" s="5">
         <f t="shared" si="1"/>
         <v>8.443035559664791E-2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>3.4101873952567141E-2</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>0.1281281467096993</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="12">
         <v>8</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="25">
         <v>1.2650999999999999</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="5">
         <v>1.1666000000000001</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="7">
         <v>1.1281000000000001</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>5.8972306335781211E-2</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>-3.3236481897685244E-2</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
         <v>0.14821551535718624</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="13">
         <v>9</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="26">
         <v>1.1755</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="8">
         <v>1.1101000000000001</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>1.1482000000000001</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Growth Rate Table.xlsx
+++ b/Growth Rate Table.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\life in OSU\OSU courses\4th\AI 2\dataset\CSE5522Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="-15" windowWidth="28800" windowHeight="16545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -404,18 +409,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -743,19 +756,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1"/>
-    <row r="2" spans="1:14" ht="16" thickBot="1">
+    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -772,7 +785,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -789,7 +802,7 @@
         <v>217.1945882352943</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -806,7 +819,7 @@
         <v>179.09019999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -823,7 +836,7 @@
         <v>171.59358974358975</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -840,7 +853,7 @@
         <v>112.55938461538459</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
@@ -857,7 +870,7 @@
         <v>213.52814814814815</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
@@ -874,7 +887,7 @@
         <v>221.41795454545448</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -891,7 +904,7 @@
         <v>162.72472727272728</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>7</v>
       </c>
@@ -908,7 +921,7 @@
         <v>179.76726027397262</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -925,7 +938,7 @@
         <v>210.506386138614</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1">
+    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -942,8 +955,8 @@
         <v>178.32256983240231</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1"/>
-    <row r="14" spans="1:14" ht="16" thickBot="1">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
@@ -972,7 +985,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1018,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1051,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1084,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1117,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1150,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1183,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1216,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1249,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1282,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1">
+    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>9</v>
       </c>
